--- a/tp1_fisica/estudio_aceleraciones_M110_mesa.xlsx
+++ b/tp1_fisica/estudio_aceleraciones_M110_mesa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>m</t>
   </si>
@@ -112,9 +112,6 @@
     <t>6750,423.00</t>
   </si>
   <si>
-    <t>7000,348.00</t>
-  </si>
-  <si>
     <t>7250,498.00</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>2000,3593.00</t>
   </si>
   <si>
-    <t>2250,3577.00</t>
-  </si>
-  <si>
     <t>750,680.00</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
   </si>
   <si>
     <t>1250,857.00</t>
-  </si>
-  <si>
-    <t>1500,741.00</t>
   </si>
   <si>
     <t>1750,936.00</t>
@@ -748,19 +739,19 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B41" s="2">
+        <v>111.03</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B42" s="2">
-        <v>111.03</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
@@ -780,8 +771,12 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="2">
+        <v>22.15</v>
+      </c>
+      <c r="B45" s="2">
+        <v>116.39</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>46</v>
       </c>
@@ -794,12 +789,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
-        <v>22.15</v>
-      </c>
-      <c r="B47" s="2">
-        <v>116.39</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>48</v>
       </c>
@@ -867,27 +858,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
